--- a/WinPerUpdateAdmin/Fuentes/PlanillaAmbientes.xlsx
+++ b/WinPerUpdateAdmin/Fuentes/PlanillaAmbientes.xlsx
@@ -7,9 +7,7 @@
     <workbookView xWindow="480" yWindow="90" windowWidth="14115" windowHeight="4680"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Ambientes" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -403,7 +401,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -440,28 +438,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/WinPerUpdateAdmin/Fuentes/PlanillaAmbientes.xlsx
+++ b/WinPerUpdateAdmin/Fuentes/PlanillaAmbientes.xlsx
@@ -1,15 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="90" windowWidth="14115" windowHeight="4680"/>
   </bookViews>
   <sheets>
     <sheet name="Ambientes" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <definedNames>
+    <definedName name="Tipo">Hoja1!$A$1:$A$2</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -44,13 +48,21 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="3" tint="-0.249977111117893"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="3">
@@ -62,12 +74,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -90,20 +102,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,44 +429,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="25.7109375" defaultRowHeight="18" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" style="5"/>
+    <col min="2" max="2" width="25.7109375" style="6"/>
+    <col min="3" max="7" width="25.7109375" style="5"/>
+    <col min="8" max="16384" width="25.7109375" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3"/>
+    </row>
+  </sheetData>
+  <dataValidations xWindow="349" yWindow="220" count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4896">
+      <formula1>Tipo</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="1 = B.D de Producción&#10;2 = B.D de Prueba" sqref="B1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Especificar nombre del servidor donde se encuenta B.D WinPer." sqref="C1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Opcional" prompt="Especificar instancia de la B.D WinPer." sqref="D1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Especificar nombre de la B.D WinPer." sqref="E1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Indicar nombre del usuario de la B.D WinPer." sqref="F1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Indicar contraseña del usuario de B.D WinPer.&#10;Nota: Contraseña será encriptada." sqref="G1"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="4" customWidth="1"/>
-    <col min="3" max="7" width="14.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>